--- a/Data/Predictions/Graph Neural Network/Other Classifiers on GNN Data/xgb_retrain_predictions.xlsx
+++ b/Data/Predictions/Graph Neural Network/Other Classifiers on GNN Data/xgb_retrain_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D403"/>
+  <dimension ref="A1:D402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBB</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>BBB</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2139,7 +2143,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2157,7 +2165,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2175,7 +2187,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2193,7 +2209,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2211,7 +2231,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2229,7 +2253,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2247,7 +2275,11 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2265,7 +2297,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2283,7 +2319,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2301,7 +2341,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2319,7 +2363,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2337,7 +2385,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2355,7 +2407,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2373,7 +2429,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2391,7 +2451,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2409,7 +2473,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2427,7 +2495,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2445,7 +2517,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2463,7 +2539,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2481,7 +2561,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2499,7 +2583,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2517,7 +2605,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2535,7 +2627,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2553,7 +2649,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2571,7 +2671,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2589,7 +2693,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2607,7 +2715,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2625,7 +2737,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2643,7 +2759,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2661,7 +2781,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2679,7 +2803,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2697,7 +2825,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2715,7 +2847,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2733,7 +2869,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2751,7 +2891,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2769,7 +2913,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2787,7 +2935,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2805,7 +2957,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2823,7 +2979,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2841,7 +3001,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2859,7 +3023,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2877,7 +3045,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2895,7 +3067,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2913,7 +3089,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2931,7 +3111,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2949,7 +3133,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2967,7 +3155,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2985,7 +3177,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3003,7 +3199,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3021,7 +3221,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3039,7 +3243,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3057,7 +3265,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3075,7 +3287,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3093,7 +3309,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3111,7 +3331,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3129,7 +3353,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3147,7 +3375,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3165,7 +3397,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3183,7 +3419,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3201,7 +3441,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3219,7 +3463,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3237,7 +3485,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3255,7 +3507,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3273,7 +3529,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3291,7 +3551,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3309,7 +3573,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3327,7 +3595,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3345,7 +3617,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3363,7 +3639,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3381,7 +3661,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3399,7 +3683,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3417,7 +3705,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3435,7 +3727,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3453,7 +3749,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3471,7 +3771,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3489,7 +3793,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3507,7 +3815,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3525,7 +3837,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3543,7 +3859,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3561,7 +3881,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3579,7 +3903,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3597,7 +3925,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3615,7 +3947,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3633,7 +3969,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3651,7 +3991,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3669,7 +4013,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3687,7 +4035,11 @@
           <t>C</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3705,7 +4057,11 @@
           <t>C</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3723,7 +4079,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3741,7 +4101,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3759,7 +4123,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3777,7 +4145,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3795,7 +4167,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3813,7 +4189,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3831,7 +4211,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3849,7 +4233,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3867,7 +4255,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3885,7 +4277,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3903,7 +4299,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3921,7 +4321,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3939,7 +4343,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3957,7 +4365,11 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3975,7 +4387,11 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3993,7 +4409,11 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4011,7 +4431,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4029,7 +4453,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4047,7 +4475,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4065,7 +4497,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4083,7 +4519,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4101,7 +4541,11 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4119,7 +4563,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4137,7 +4585,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4155,7 +4607,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4173,7 +4629,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4191,7 +4651,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4209,7 +4673,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4227,43 +4695,55 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>KODK</t>
+          <t>KOS</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
+          <t>CCC</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>KOS</t>
+          <t>KSS</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>CCC</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4273,7 +4753,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4281,43 +4761,55 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>KSS</t>
+          <t>KW</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>KW</t>
+          <t>LAMR</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4327,7 +4819,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4335,12 +4827,16 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>LKQ</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4353,25 +4849,33 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>LKQ</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2012-01-01</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr"/>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4381,15 +4885,19 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4399,7 +4907,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4407,53 +4915,65 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>LPX</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>LPX</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>LUV</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4461,7 +4981,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4471,7 +4995,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4479,7 +5003,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -4489,7 +5017,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4497,7 +5025,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -4507,7 +5039,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4515,17 +5047,21 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>LUV</t>
+          <t>LVS</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4533,43 +5069,55 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>LVS</t>
+          <t>LYV</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>LYV</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2012-10-01</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4579,7 +5127,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2012-10-01</t>
+          <t>2013-01-01</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4587,7 +5135,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -4597,7 +5149,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4605,7 +5157,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -4615,15 +5171,19 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -4633,33 +5193,41 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MCHP</t>
+          <t>MCO</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2012-07-01</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -4669,7 +5237,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2012-07-01</t>
+          <t>2013-01-01</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4677,7 +5245,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -4687,7 +5259,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4695,7 +5267,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -4705,7 +5281,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4713,7 +5289,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -4723,7 +5303,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4731,7 +5311,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -4741,7 +5325,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4749,25 +5333,33 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>MDLZ</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -4777,15 +5369,19 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2012-10-01</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -4795,7 +5391,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2012-10-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4803,17 +5399,21 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MDLZ</t>
+          <t>MEOH</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4821,61 +5421,77 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>MEOH</t>
+          <t>MERC</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>MERC</t>
+          <t>MGM</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr"/>
+          <t>CCC</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>MLM</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>CCC</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -4885,7 +5501,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4893,43 +5509,55 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>MLM</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr"/>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MMP</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2013-04-01</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>AA</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -4939,15 +5567,19 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2013-04-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -4957,33 +5589,41 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>MMP</t>
+          <t>MRC</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -4993,33 +5633,41 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>MRC</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr"/>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5029,7 +5677,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5037,17 +5685,21 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2011-10-01</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5055,7 +5707,11 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5065,7 +5721,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2011-10-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5073,7 +5729,11 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5083,7 +5743,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5091,25 +5751,33 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2011-10-01</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5119,7 +5787,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2011-10-01</t>
+          <t>2012-07-01</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5127,7 +5795,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5137,7 +5809,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2012-07-01</t>
+          <t>2013-01-01</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -5145,7 +5817,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5155,7 +5831,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>2013-04-01</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -5163,7 +5839,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5173,7 +5853,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2013-04-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5181,7 +5861,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5191,7 +5875,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5199,35 +5883,43 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>MTN</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>MTN</t>
+          <t>MTZ</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2012-07-01</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5235,7 +5927,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr"/>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5245,7 +5941,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2012-07-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5253,12 +5949,16 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>MTZ</t>
+          <t>MUR</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5271,17 +5971,21 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr"/>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>MUR</t>
+          <t>NCR</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -5289,7 +5993,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr"/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -5299,7 +6007,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -5307,7 +6015,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr"/>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -5317,7 +6029,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -5325,7 +6037,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr"/>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -5335,7 +6051,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -5343,25 +6059,33 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr"/>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>NCR</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2012-01-01</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -5371,7 +6095,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -5379,7 +6103,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr"/>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -5389,7 +6117,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2012-10-01</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5397,17 +6125,21 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr"/>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2012-10-01</t>
+          <t>2014-04-01</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -5415,43 +6147,55 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr"/>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>NFG</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2014-04-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr"/>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>NFG</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>AA</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -5461,33 +6205,41 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>NGL</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -5497,7 +6249,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -5505,25 +6257,33 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr"/>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>NGL</t>
+          <t>NOC</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2012-07-01</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -5533,7 +6293,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2012-07-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -5541,7 +6301,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr"/>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -5551,7 +6315,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -5559,25 +6323,33 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr"/>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>NOC</t>
+          <t>NRG</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -5587,7 +6359,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5595,115 +6367,143 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr"/>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>NRG</t>
+          <t>NTAP</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>NTAP</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>NWE</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>NWE</t>
+          <t>OGE</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>OGE</t>
+          <t>OLN</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>OLN</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2012-07-01</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -5713,7 +6513,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2012-07-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5721,7 +6521,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -5731,7 +6535,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5739,7 +6543,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr"/>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -5749,7 +6557,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5757,7 +6565,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr"/>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -5767,7 +6579,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5775,7 +6587,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr"/>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -5785,7 +6601,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5793,35 +6609,43 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr"/>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>ORLY</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2014-04-01</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORLY</t>
+          <t>OTEX</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2014-04-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5829,7 +6653,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr"/>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -5839,7 +6667,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5847,7 +6675,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr"/>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -5857,97 +6689,117 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>OTEX</t>
+          <t>OXY</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>OXY</t>
+          <t>PAA</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>PAA</t>
+          <t>PAG</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>PAG</t>
+          <t>PBI</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2012-10-01</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>PBI</t>
+          <t>PCAR</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2012-10-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5955,7 +6807,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr"/>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -5965,7 +6821,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5973,25 +6829,33 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr"/>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>PCAR</t>
+          <t>PCG</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2013-04-01</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -6001,25 +6865,29 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2013-04-01</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>PEG</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -6027,7 +6895,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D294" t="inlineStr"/>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6037,7 +6909,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6045,7 +6917,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D295" t="inlineStr"/>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6055,7 +6931,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -6063,7 +6939,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D296" t="inlineStr"/>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -6073,7 +6953,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6081,7 +6961,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D297" t="inlineStr"/>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -6091,7 +6975,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -6099,17 +6983,21 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D298" t="inlineStr"/>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>PEG</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2014-04-01</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -6117,7 +7005,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr"/>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -6127,7 +7019,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2014-04-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -6135,7 +7027,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D300" t="inlineStr"/>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -6145,7 +7041,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -6153,7 +7049,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D301" t="inlineStr"/>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -6163,7 +7063,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -6171,35 +7071,43 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D302" t="inlineStr"/>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>PFGC</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>PFGC</t>
+          <t>PNM</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -6207,7 +7115,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D304" t="inlineStr"/>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -6217,7 +7129,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -6225,35 +7137,43 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D305" t="inlineStr"/>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>PNM</t>
+          <t>PNW</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>PNW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2012-10-01</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -6261,7 +7181,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D307" t="inlineStr"/>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -6271,7 +7195,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2012-10-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -6279,43 +7203,55 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D308" t="inlineStr"/>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>POST</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>PSX</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -6325,7 +7261,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -6333,61 +7269,77 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D311" t="inlineStr"/>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>PSX</t>
+          <t>PXD</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2012-07-01</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>PXD</t>
+          <t>RHP</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2012-07-01</t>
+          <t>2014-04-01</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>RHP</t>
+          <t>RRC</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2014-04-01</t>
+          <t>2012-04-01</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -6397,7 +7349,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2012-04-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -6405,7 +7357,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -6415,7 +7371,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -6423,7 +7379,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D316" t="inlineStr"/>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -6433,7 +7393,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -6441,25 +7401,33 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D317" t="inlineStr"/>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>RRC</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2014-04-01</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -6469,7 +7437,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2014-04-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -6477,7 +7445,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D319" t="inlineStr"/>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -6487,7 +7459,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -6495,7 +7467,11 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D320" t="inlineStr"/>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -6505,7 +7481,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -6513,25 +7489,33 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D321" t="inlineStr"/>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>SALM</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -6541,7 +7525,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -6549,12 +7533,16 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D323" t="inlineStr"/>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>SALM</t>
+          <t>SBAC</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -6567,17 +7555,21 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D324" t="inlineStr"/>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>SBGI</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -6585,7 +7577,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D325" t="inlineStr"/>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -6595,7 +7591,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6603,25 +7599,33 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D326" t="inlineStr"/>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>SBGI</t>
+          <t>SBUX</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2012-10-01</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -6631,7 +7635,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2012-10-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -6639,7 +7643,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D328" t="inlineStr"/>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -6649,7 +7657,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -6657,17 +7665,21 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr"/>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>SCCO</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6675,35 +7687,43 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D330" t="inlineStr"/>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SCCO</t>
+          <t>SEAS</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>SEAS</t>
+          <t>SLCA</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -6711,7 +7731,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr"/>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -6721,43 +7745,51 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SLCA</t>
+          <t>SLGN</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SLGN</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6765,7 +7797,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D335" t="inlineStr"/>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -6775,7 +7811,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6783,43 +7819,55 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D336" t="inlineStr"/>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SNA</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2014-04-01</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>SNA</t>
+          <t>SRE</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2014-04-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -6829,7 +7877,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6837,25 +7885,33 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D339" t="inlineStr"/>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>SSP</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -6865,7 +7921,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6873,17 +7929,21 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D341" t="inlineStr"/>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>SSP</t>
+          <t>STLD</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -6891,17 +7951,21 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D342" t="inlineStr"/>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>STLD</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6909,7 +7973,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D343" t="inlineStr"/>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -6919,7 +7987,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6927,7 +7995,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D344" t="inlineStr"/>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -6937,7 +8009,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -6945,7 +8017,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D345" t="inlineStr"/>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -6955,7 +8031,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6963,7 +8039,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D346" t="inlineStr"/>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -6973,7 +8053,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6981,12 +8061,16 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D347" t="inlineStr"/>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>SWN</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -6996,10 +8080,14 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -7009,7 +8097,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -7017,12 +8105,16 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D349" t="inlineStr"/>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SWN</t>
+          <t>SYK</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -7032,46 +8124,58 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr"/>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SYK</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>AA</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr"/>
+          <t>CCC</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2013-01-01</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>CCC</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -7081,7 +8185,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -7089,7 +8193,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D353" t="inlineStr"/>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -7099,25 +8207,29 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TGI</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -7125,7 +8237,11 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D355" t="inlineStr"/>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -7135,7 +8251,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -7143,17 +8259,21 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D356" t="inlineStr"/>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>TGI</t>
+          <t>TGNA</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -7161,25 +8281,33 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr"/>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>TGNA</t>
+          <t>TGT</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr"/>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -7189,7 +8317,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -7197,7 +8325,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D359" t="inlineStr"/>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -7207,7 +8339,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -7215,7 +8347,11 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D360" t="inlineStr"/>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -7225,7 +8361,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -7233,61 +8369,77 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="D361" t="inlineStr"/>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>THC</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2012-07-01</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>AA</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>TKR</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2012-07-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>TKR</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -7297,7 +8449,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -7305,7 +8457,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D365" t="inlineStr"/>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -7315,7 +8471,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -7323,12 +8479,16 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D366" t="inlineStr"/>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>TOL</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -7338,46 +8498,58 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>TOL</t>
+          <t>TRMB</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>TRS</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -7387,7 +8559,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -7395,25 +8567,33 @@
           <t>BB</t>
         </is>
       </c>
-      <c r="D370" t="inlineStr"/>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>TRS</t>
+          <t>TUP</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2016-04-01</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -7423,7 +8603,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2016-04-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -7431,25 +8611,33 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D372" t="inlineStr"/>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>TUP</t>
+          <t>TWI</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -7459,7 +8647,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2015-07-01</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -7467,53 +8655,65 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D374" t="inlineStr"/>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>TWI</t>
+          <t>TXN</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
+          <t>2013-01-01</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>UHS</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>UIS</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -7521,7 +8721,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D377" t="inlineStr"/>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -7531,7 +8735,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2014-07-01</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -7539,7 +8743,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D378" t="inlineStr"/>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -7549,7 +8757,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2014-07-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -7557,7 +8765,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D379" t="inlineStr"/>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -7567,7 +8779,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -7575,7 +8787,11 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D380" t="inlineStr"/>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -7585,7 +8801,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -7593,61 +8809,77 @@
           <t>B</t>
         </is>
       </c>
-      <c r="D381" t="inlineStr"/>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>UIS</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2015-01-01</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D382" t="inlineStr"/>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>URI</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>AA</t>
-        </is>
-      </c>
-      <c r="D383" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>USM</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2013-04-01</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D384" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -7657,20 +8889,24 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2013-04-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D385" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>USM</t>
+          <t>VGR</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -7680,51 +8916,63 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>VGR</t>
+          <t>VMC</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D387" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>VMI</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2014-10-01</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>VMI</t>
+          <t>VSH</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -7734,38 +8982,46 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D389" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>VSH</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2014-10-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>WEC</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2015-10-01</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7773,25 +9029,33 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D391" t="inlineStr"/>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>WEC</t>
+          <t>WM</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2015-10-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -7801,7 +9065,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7809,61 +9073,77 @@
           <t>BBB</t>
         </is>
       </c>
-      <c r="D393" t="inlineStr"/>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>WMB</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2013-07-01</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr"/>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>WMB</t>
+          <t>WTI</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2014-01-01</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>BB</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>WTI</t>
+          <t>XEL</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>2013-10-01</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -7873,15 +9153,19 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -7891,7 +9175,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -7899,7 +9183,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D398" t="inlineStr"/>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -7909,7 +9197,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7917,79 +9205,77 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D399" t="inlineStr"/>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>XEL</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2016-10-01</t>
+          <t>2016-01-01</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr"/>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>YUM</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>2015-04-01</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr"/>
+          <t>BBB</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>BBB</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>YUM</t>
+          <t>ZBRA</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2015-04-01</t>
+          <t>2016-10-01</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>BBB</t>
-        </is>
-      </c>
-      <c r="D402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>ZBRA</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D403" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
